--- a/Progetto_ISS.xlsx
+++ b/Progetto_ISS.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\segre\Desktop\Progetto_ISS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A086DF-F8F2-48BA-A888-961C113B2CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,10 +24,355 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="108">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>User Story</t>
+  </si>
+  <si>
+    <t>Come...</t>
+  </si>
+  <si>
+    <t>Voglio...</t>
+  </si>
+  <si>
+    <t>In modo da...</t>
+  </si>
+  <si>
+    <t>Criteri di accettazione</t>
+  </si>
+  <si>
+    <t>Priorità</t>
+  </si>
+  <si>
+    <t>Story Points</t>
+  </si>
+  <si>
+    <t>US01</t>
+  </si>
+  <si>
+    <t>Setup Gioco</t>
+  </si>
+  <si>
+    <t>Creazione base del gioco</t>
+  </si>
+  <si>
+    <t>Giocatore</t>
+  </si>
+  <si>
+    <t>avviare una nuova partita</t>
+  </si>
+  <si>
+    <t>poter iniziare una sessione di gioco in locale</t>
+  </si>
+  <si>
+    <t>Il sistema mostra il menù principale con l’opzione “Nuova Partita” e “Esci”</t>
+  </si>
+  <si>
+    <t>Alta</t>
+  </si>
+  <si>
+    <t>US02</t>
+  </si>
+  <si>
+    <t>Gestione Partita</t>
+  </si>
+  <si>
+    <t>Gestione del GameManager</t>
+  </si>
+  <si>
+    <t>Sviluppatore</t>
+  </si>
+  <si>
+    <t>avere una classe GameManager che coordina giocatori e battaglia</t>
+  </si>
+  <si>
+    <t>centralizzare la logica del flusso di gioco</t>
+  </si>
+  <si>
+    <t>GameManager può creare 2 Player, avviare la draft e la Battle</t>
+  </si>
+  <si>
+    <t>US03</t>
+  </si>
+  <si>
+    <t>Draft</t>
+  </si>
+  <si>
+    <t>Selezione dei mostri</t>
+  </si>
+  <si>
+    <t>scegliere i miei mostri in un draft alternato</t>
+  </si>
+  <si>
+    <t>poter creare la mia squadra prima della battaglia</t>
+  </si>
+  <si>
+    <t>Entrambi i giocatori possono selezionare a turno i mostri, quelli scelti diventano non disponibili</t>
+  </si>
+  <si>
+    <t>US04</t>
+  </si>
+  <si>
+    <t>Squadra</t>
+  </si>
+  <si>
+    <t>Gestione del team del giocatore</t>
+  </si>
+  <si>
+    <t>vedere e modificare la mia squadra di mostri</t>
+  </si>
+  <si>
+    <t>conoscere le mie scelte prima della battaglia</t>
+  </si>
+  <si>
+    <t>La schermata mostra i mostri selezionati e le loro statistiche</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>US05</t>
+  </si>
+  <si>
+    <t>Mostri</t>
+  </si>
+  <si>
+    <t>Creazione entità Monster</t>
+  </si>
+  <si>
+    <t>creare la classe Monster con statistiche base</t>
+  </si>
+  <si>
+    <t>rappresentare i mostri e le loro caratteristiche</t>
+  </si>
+  <si>
+    <t>Monster ha attributi (HP, attacco, difesa, velocità, tipo, mosse)</t>
+  </si>
+  <si>
+    <t>US06</t>
+  </si>
+  <si>
+    <t>Evoluzione dei mostri</t>
+  </si>
+  <si>
+    <t>far evolvere il mio mostro</t>
+  </si>
+  <si>
+    <t>renderlo più potente durante la battaglia</t>
+  </si>
+  <si>
+    <t>L’evoluzione modifica le statistiche e sblocca Mosse+</t>
+  </si>
+  <si>
+    <t>US07</t>
+  </si>
+  <si>
+    <t>Mosse</t>
+  </si>
+  <si>
+    <t>Implementazione classe Move</t>
+  </si>
+  <si>
+    <t>creare una classe per gestire le mosse</t>
+  </si>
+  <si>
+    <t>associare effetti e potenza ai mostri</t>
+  </si>
+  <si>
+    <t>Ogni mossa ha nome, potenza, precisione e tipo (danno, buff, debuff)</t>
+  </si>
+  <si>
+    <t>US08</t>
+  </si>
+  <si>
+    <t>Potenziamento delle mosse</t>
+  </si>
+  <si>
+    <t>far salire di livello una mossa</t>
+  </si>
+  <si>
+    <t>aumentare il suo effetto durante la battaglia</t>
+  </si>
+  <si>
+    <t>Dopo un certo numero di turni la mossa aumenta di livello</t>
+  </si>
+  <si>
+    <t>US09</t>
+  </si>
+  <si>
+    <t>Effetti</t>
+  </si>
+  <si>
+    <t>Gestione degli effetti in battaglia</t>
+  </si>
+  <si>
+    <t>implementare gli effetti delle mosse</t>
+  </si>
+  <si>
+    <t>applicare buff, debuff o danni periodici</t>
+  </si>
+  <si>
+    <t>Gli effetti influenzano correttamente le statistiche dei mostri</t>
+  </si>
+  <si>
+    <t>US10</t>
+  </si>
+  <si>
+    <t>Sistema di debolezze/forze</t>
+  </si>
+  <si>
+    <t>conoscere le affinità elementali</t>
+  </si>
+  <si>
+    <t>creare strategie durante la battaglia</t>
+  </si>
+  <si>
+    <t>Ogni ElementType ha vantaggi e svantaggi contro altri tipi</t>
+  </si>
+  <si>
+    <t>US11</t>
+  </si>
+  <si>
+    <t>Turni</t>
+  </si>
+  <si>
+    <t>Sistema di turnazione</t>
+  </si>
+  <si>
+    <t>gestire il turno tra i due giocatori</t>
+  </si>
+  <si>
+    <t>alternare azioni in modo ordinato</t>
+  </si>
+  <si>
+    <t>Il sistema alterna i turni rispettando la velocità dei mostri</t>
+  </si>
+  <si>
+    <t>US12</t>
+  </si>
+  <si>
+    <t>Battaglia</t>
+  </si>
+  <si>
+    <t>Gestione della Battle</t>
+  </si>
+  <si>
+    <t>combattere contro un altro evocatore</t>
+  </si>
+  <si>
+    <t>determinare il vincitore</t>
+  </si>
+  <si>
+    <t>La battaglia finisce quando tutti i mostri di un giocatore sono sconfitti</t>
+  </si>
+  <si>
+    <t>US13</t>
+  </si>
+  <si>
+    <t>UI Battaglia</t>
+  </si>
+  <si>
+    <t>Interfaccia della battaglia</t>
+  </si>
+  <si>
+    <t>visualizzare mostri, mosse e HP</t>
+  </si>
+  <si>
+    <t>avere un feedback chiaro del combattimento</t>
+  </si>
+  <si>
+    <t>Mostra HP, nomi, mosse e risultati delle azioni</t>
+  </si>
+  <si>
+    <t>US14</t>
+  </si>
+  <si>
+    <t>Vittoria</t>
+  </si>
+  <si>
+    <t>Condizione di vittoria</t>
+  </si>
+  <si>
+    <t>sapere quando ho vinto o perso</t>
+  </si>
+  <si>
+    <t>concludere correttamente la battaglia</t>
+  </si>
+  <si>
+    <t>Il sistema mostra il vincitore e permette di tornare al menù</t>
+  </si>
+  <si>
+    <t>US15</t>
+  </si>
+  <si>
+    <t>Salvataggio</t>
+  </si>
+  <si>
+    <t>Gestione partite salvate</t>
+  </si>
+  <si>
+    <t>salvare il mio progresso o la squadra</t>
+  </si>
+  <si>
+    <t>riprendere la partita successivamente</t>
+  </si>
+  <si>
+    <t>Il sistema salva squadra e statistiche selezionate</t>
+  </si>
+  <si>
+    <t>Bassa</t>
+  </si>
+  <si>
+    <t>US16</t>
+  </si>
+  <si>
+    <t>Tutorial</t>
+  </si>
+  <si>
+    <t>Guida introduttiva</t>
+  </si>
+  <si>
+    <t>imparare le basi del gioco</t>
+  </si>
+  <si>
+    <t>capire come funzionano le battaglie e il draft</t>
+  </si>
+  <si>
+    <t>Tutorial interattivo che spiega la scelta dei mostri e i turni</t>
+  </si>
+  <si>
+    <t>Tipi Elemantali</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -49,11 +400,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +690,483 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" customWidth="1"/>
+    <col min="7" max="7" width="46.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="95.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="103.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="118.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Progetto_ISS.xlsx
+++ b/Progetto_ISS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\segre\Desktop\Progetto_ISS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A086DF-F8F2-48BA-A888-961C113B2CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781D7ED9-7097-4244-90AE-11D9FBDD6D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="70">
   <si>
     <t>ID</t>
   </si>
@@ -33,42 +33,18 @@
     <t>User Story</t>
   </si>
   <si>
-    <t>Come...</t>
-  </si>
-  <si>
-    <t>Voglio...</t>
-  </si>
-  <si>
-    <t>In modo da...</t>
-  </si>
-  <si>
     <t>Criteri di accettazione</t>
   </si>
   <si>
     <t>Priorità</t>
   </si>
   <si>
-    <t>Story Points</t>
-  </si>
-  <si>
     <t>US01</t>
   </si>
   <si>
-    <t>Setup Gioco</t>
-  </si>
-  <si>
     <t>Creazione base del gioco</t>
   </si>
   <si>
-    <t>Giocatore</t>
-  </si>
-  <si>
-    <t>avviare una nuova partita</t>
-  </si>
-  <si>
-    <t>poter iniziare una sessione di gioco in locale</t>
-  </si>
-  <si>
     <t>Il sistema mostra il menù principale con l’opzione “Nuova Partita” e “Esci”</t>
   </si>
   <si>
@@ -78,57 +54,24 @@
     <t>US02</t>
   </si>
   <si>
-    <t>Gestione Partita</t>
-  </si>
-  <si>
     <t>Gestione del GameManager</t>
   </si>
   <si>
-    <t>Sviluppatore</t>
-  </si>
-  <si>
-    <t>avere una classe GameManager che coordina giocatori e battaglia</t>
-  </si>
-  <si>
-    <t>centralizzare la logica del flusso di gioco</t>
-  </si>
-  <si>
     <t>GameManager può creare 2 Player, avviare la draft e la Battle</t>
   </si>
   <si>
     <t>US03</t>
   </si>
   <si>
-    <t>Draft</t>
-  </si>
-  <si>
     <t>Selezione dei mostri</t>
   </si>
   <si>
-    <t>scegliere i miei mostri in un draft alternato</t>
-  </si>
-  <si>
-    <t>poter creare la mia squadra prima della battaglia</t>
-  </si>
-  <si>
-    <t>Entrambi i giocatori possono selezionare a turno i mostri, quelli scelti diventano non disponibili</t>
-  </si>
-  <si>
     <t>US04</t>
   </si>
   <si>
-    <t>Squadra</t>
-  </si>
-  <si>
     <t>Gestione del team del giocatore</t>
   </si>
   <si>
-    <t>vedere e modificare la mia squadra di mostri</t>
-  </si>
-  <si>
-    <t>conoscere le mie scelte prima della battaglia</t>
-  </si>
-  <si>
     <t>La schermata mostra i mostri selezionati e le loro statistiche</t>
   </si>
   <si>
@@ -138,18 +81,9 @@
     <t>US05</t>
   </si>
   <si>
-    <t>Mostri</t>
-  </si>
-  <si>
     <t>Creazione entità Monster</t>
   </si>
   <si>
-    <t>creare la classe Monster con statistiche base</t>
-  </si>
-  <si>
-    <t>rappresentare i mostri e le loro caratteristiche</t>
-  </si>
-  <si>
     <t>Monster ha attributi (HP, attacco, difesa, velocità, tipo, mosse)</t>
   </si>
   <si>
@@ -159,30 +93,15 @@
     <t>Evoluzione dei mostri</t>
   </si>
   <si>
-    <t>far evolvere il mio mostro</t>
-  </si>
-  <si>
-    <t>renderlo più potente durante la battaglia</t>
-  </si>
-  <si>
     <t>L’evoluzione modifica le statistiche e sblocca Mosse+</t>
   </si>
   <si>
     <t>US07</t>
   </si>
   <si>
-    <t>Mosse</t>
-  </si>
-  <si>
     <t>Implementazione classe Move</t>
   </si>
   <si>
-    <t>creare una classe per gestire le mosse</t>
-  </si>
-  <si>
-    <t>associare effetti e potenza ai mostri</t>
-  </si>
-  <si>
     <t>Ogni mossa ha nome, potenza, precisione e tipo (danno, buff, debuff)</t>
   </si>
   <si>
@@ -192,30 +111,15 @@
     <t>Potenziamento delle mosse</t>
   </si>
   <si>
-    <t>far salire di livello una mossa</t>
-  </si>
-  <si>
-    <t>aumentare il suo effetto durante la battaglia</t>
-  </si>
-  <si>
     <t>Dopo un certo numero di turni la mossa aumenta di livello</t>
   </si>
   <si>
     <t>US09</t>
   </si>
   <si>
-    <t>Effetti</t>
-  </si>
-  <si>
     <t>Gestione degli effetti in battaglia</t>
   </si>
   <si>
-    <t>implementare gli effetti delle mosse</t>
-  </si>
-  <si>
-    <t>applicare buff, debuff o danni periodici</t>
-  </si>
-  <si>
     <t>Gli effetti influenzano correttamente le statistiche dei mostri</t>
   </si>
   <si>
@@ -225,130 +129,112 @@
     <t>Sistema di debolezze/forze</t>
   </si>
   <si>
-    <t>conoscere le affinità elementali</t>
-  </si>
-  <si>
-    <t>creare strategie durante la battaglia</t>
-  </si>
-  <si>
     <t>Ogni ElementType ha vantaggi e svantaggi contro altri tipi</t>
   </si>
   <si>
     <t>US11</t>
   </si>
   <si>
-    <t>Turni</t>
-  </si>
-  <si>
     <t>Sistema di turnazione</t>
   </si>
   <si>
-    <t>gestire il turno tra i due giocatori</t>
-  </si>
-  <si>
-    <t>alternare azioni in modo ordinato</t>
-  </si>
-  <si>
     <t>Il sistema alterna i turni rispettando la velocità dei mostri</t>
   </si>
   <si>
     <t>US12</t>
   </si>
   <si>
-    <t>Battaglia</t>
-  </si>
-  <si>
     <t>Gestione della Battle</t>
   </si>
   <si>
-    <t>combattere contro un altro evocatore</t>
-  </si>
-  <si>
-    <t>determinare il vincitore</t>
-  </si>
-  <si>
     <t>La battaglia finisce quando tutti i mostri di un giocatore sono sconfitti</t>
   </si>
   <si>
     <t>US13</t>
   </si>
   <si>
-    <t>UI Battaglia</t>
-  </si>
-  <si>
     <t>Interfaccia della battaglia</t>
   </si>
   <si>
-    <t>visualizzare mostri, mosse e HP</t>
-  </si>
-  <si>
-    <t>avere un feedback chiaro del combattimento</t>
-  </si>
-  <si>
     <t>Mostra HP, nomi, mosse e risultati delle azioni</t>
   </si>
   <si>
     <t>US14</t>
   </si>
   <si>
-    <t>Vittoria</t>
-  </si>
-  <si>
     <t>Condizione di vittoria</t>
   </si>
   <si>
-    <t>sapere quando ho vinto o perso</t>
-  </si>
-  <si>
-    <t>concludere correttamente la battaglia</t>
-  </si>
-  <si>
     <t>Il sistema mostra il vincitore e permette di tornare al menù</t>
   </si>
   <si>
-    <t>US15</t>
-  </si>
-  <si>
-    <t>Salvataggio</t>
-  </si>
-  <si>
-    <t>Gestione partite salvate</t>
-  </si>
-  <si>
-    <t>salvare il mio progresso o la squadra</t>
-  </si>
-  <si>
-    <t>riprendere la partita successivamente</t>
-  </si>
-  <si>
-    <t>Il sistema salva squadra e statistiche selezionate</t>
-  </si>
-  <si>
-    <t>Bassa</t>
-  </si>
-  <si>
     <t>US16</t>
   </si>
   <si>
-    <t>Tutorial</t>
-  </si>
-  <si>
     <t>Guida introduttiva</t>
   </si>
   <si>
-    <t>imparare le basi del gioco</t>
-  </si>
-  <si>
-    <t>capire come funzionano le battaglie e il draft</t>
-  </si>
-  <si>
     <t>Tutorial interattivo che spiega la scelta dei mostri e i turni</t>
   </si>
   <si>
-    <t>Tipi Elemantali</t>
-  </si>
-  <si>
-    <t>Categoria</t>
+    <t>ITEM</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>NOT STARTED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Come Giocatore voglio avviare una nuova partita per iniziare una partita in locale </t>
+  </si>
+  <si>
+    <t>Come sviluppatore voglio creare una classe GameManager che coordina giocatori e battagli per centralizzare la logica del flusso di gioco</t>
+  </si>
+  <si>
+    <t>Come Sviluppatore voglio creare la classe Monster con statistiche base per rappresentare i mostri e le loro caratteristiche</t>
+  </si>
+  <si>
+    <t>Entrambi i giocatori possano selezionare a turno i mostri, quelli scelti diventano non disponibili</t>
+  </si>
+  <si>
+    <t>Come Giocatore voglio scegliere i miei mostri in un draft alternato in modo tale da  poter creare la mia squadra prima della battaglia</t>
+  </si>
+  <si>
+    <t>Come Giocatore voglio vedere e modificare la mia squadra di mostri cosi da conoscere le mie scelte prima della battaglia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Come Giocatore voglio poter potenziare il mio mostro per renderlo più potente durante la battaglia </t>
+  </si>
+  <si>
+    <t>Come Giocatore voglio far salire di livello una mossa per modificare il suo effetto e la sua potenza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Come Sviluppatore voglio creare una classe per gestire le mosse per sapere cosa fanno </t>
+  </si>
+  <si>
+    <t>Come Sviluppatore voglio implementare gli effetti delle mosse per applicare buff, debuff o danni periodici</t>
+  </si>
+  <si>
+    <t>Come Giocatore voglio conoscere le affinità elementali per creare strategie durante la battaglia</t>
+  </si>
+  <si>
+    <t>Come Sviluppatore voglio gestire il turno tra i due giocatori per alternare azioni in modo ordinato</t>
+  </si>
+  <si>
+    <t>Come Giocatore voglio combattere contro un altro evocatore per determinare il vincitore</t>
+  </si>
+  <si>
+    <t>Come Giocatore voglio visualizzare mostri, mosse e HP per avere un feedback chiaro del combattimento</t>
+  </si>
+  <si>
+    <t>Come Giocatore voglio sapere quando ho vinto o perso per concludere correttamente la battaglia</t>
+  </si>
+  <si>
+    <t>Come Giocatore voglio imparare le basi del gioco per capire come funzionano le battaglie e il draft</t>
   </si>
 </sst>
 </file>
@@ -400,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -411,6 +297,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -689,484 +576,409 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="438" row="0">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{B1F18A49-65C3-4EF3-82A5-A31AF5C83623}">
+  <we:reference id="wa200005502" version="1.0.0.12" store="it-IT" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa200005502" version="1.0.0.12" store="wa200005502" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties>
+    <we:property name="docId" value="&quot;QaodOlXFFW9BlCOhOOEMc&quot;"/>
+  </we:properties>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_GPT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_CREATE_PROMPT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_LIST</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_HLIST</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_CLASSIFY</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_TRANSLATE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_EXTRACT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_TAG</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_CONVERT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_FORMAT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_SUMMARIZE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_TABLE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_FILL</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_SPLIT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_HSPLIT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_EDIT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_MATCH</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_VISION</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_WEB</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" customWidth="1"/>
-    <col min="7" max="7" width="46.44140625" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" customWidth="1"/>
+    <col min="4" max="4" width="53.77734375" customWidth="1"/>
+    <col min="5" max="5" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="102" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="95.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="103.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="D7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="118.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="D9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="D11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" ht="95.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="D13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" ht="103.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="D14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="D15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" ht="118.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I17" s="2"/>
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>